--- a/artfynd/A 42548-2021.xlsx
+++ b/artfynd/A 42548-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111873080</v>
+        <v>111873132</v>
       </c>
       <c r="B2" t="n">
-        <v>90658</v>
+        <v>90710</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111873132</v>
+        <v>111873080</v>
       </c>
       <c r="B3" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>

--- a/artfynd/A 42548-2021.xlsx
+++ b/artfynd/A 42548-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111873132</v>
+        <v>111873080</v>
       </c>
       <c r="B2" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111873080</v>
+        <v>111873132</v>
       </c>
       <c r="B3" t="n">
-        <v>90658</v>
+        <v>90710</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>

--- a/artfynd/A 42548-2021.xlsx
+++ b/artfynd/A 42548-2021.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>789572.2412747983</v>
+        <v>789572</v>
       </c>
       <c r="R2" t="n">
-        <v>7434798.954642956</v>
+        <v>7434799</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -754,19 +754,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -834,10 +824,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>789572.2412747983</v>
+        <v>789572</v>
       </c>
       <c r="R3" t="n">
-        <v>7434798.954642956</v>
+        <v>7434799</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -867,19 +857,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 42548-2021.xlsx
+++ b/artfynd/A 42548-2021.xlsx
@@ -683,7 +683,7 @@
         <v>111873132</v>
       </c>
       <c r="B2" t="n">
-        <v>90710</v>
+        <v>90844</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>111873080</v>
       </c>
       <c r="B3" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
